--- a/Tidsplan.xlsx
+++ b/Tidsplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Life-Of-Mark---After-Iteration-0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D1E3D98-AE54-46F3-9F15-C2C2D5C1A4EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF71E45-1B14-4CDB-A53C-70A4E7ACA67F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{6CFF20DE-F54B-4CA7-9EA6-B3F70A24F71B}"/>
+    <workbookView xWindow="4170" yWindow="765" windowWidth="21600" windowHeight="11385" xr2:uid="{6CFF20DE-F54B-4CA7-9EA6-B3F70A24F71B}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Dato</t>
   </si>
@@ -53,10 +53,22 @@
     <t>Alle</t>
   </si>
   <si>
-    <t>DEADLINE FOR ITERATION 1!!!!</t>
-  </si>
-  <si>
-    <t>Added baggrund 1, Fixed bug</t>
+    <t>Redigere variabelnavne</t>
+  </si>
+  <si>
+    <t>Baggrund Hallway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added baggrund classroom, Fixed bug, </t>
+  </si>
+  <si>
+    <t>Hovedmenu - Tekst</t>
+  </si>
+  <si>
+    <t>Tidsplan, Borde i klasseværelse, (Storyboard)</t>
+  </si>
+  <si>
+    <t>DEADLINE FOR ITERATION 1!</t>
   </si>
 </sst>
 </file>
@@ -72,12 +84,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -92,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -100,6 +136,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -116,78 +159,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Tekstfelt 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E40B7C90-22A0-441B-9929-87B1CC264E57}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10668000" y="1571625"/>
-          <a:ext cx="1704975" cy="657225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="da-DK" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -490,7 +461,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D2:D3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,11 +491,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>43887</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -532,14 +503,22 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>43888</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -552,7 +531,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="5">
         <v>43890</v>
       </c>
       <c r="B5" s="3"/>
@@ -562,7 +541,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="6">
         <v>43891</v>
       </c>
       <c r="B6" s="3"/>
@@ -592,7 +571,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="4">
         <v>43894</v>
       </c>
       <c r="B9" s="3"/>
@@ -602,7 +581,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="4">
         <v>43895</v>
       </c>
       <c r="B10" s="3"/>
@@ -622,7 +601,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="5">
         <v>43897</v>
       </c>
       <c r="B12" s="3"/>
@@ -632,7 +611,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="6">
         <v>43898</v>
       </c>
       <c r="B13" s="3"/>
@@ -651,47 +630,46 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43900</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>43901</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:2" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>43902</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43903</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:2" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>43904</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:2" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>43905</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
         <v>43906</v>
       </c>
-      <c r="B21" t="s">
-        <v>6</v>
+      <c r="B21" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tidsplan.xlsx
+++ b/Tidsplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Life-Of-Mark---After-Iteration-0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF71E45-1B14-4CDB-A53C-70A4E7ACA67F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40549012-ED76-4FB9-992E-3B38016CF64A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4170" yWindow="765" windowWidth="21600" windowHeight="11385" xr2:uid="{6CFF20DE-F54B-4CA7-9EA6-B3F70A24F71B}"/>
   </bookViews>

--- a/Tidsplan.xlsx
+++ b/Tidsplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Life-Of-Mark---After-Iteration-0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40549012-ED76-4FB9-992E-3B38016CF64A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761B6DA3-A0E9-4942-BA12-1BCBD95CE845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="765" windowWidth="21600" windowHeight="11385" xr2:uid="{6CFF20DE-F54B-4CA7-9EA6-B3F70A24F71B}"/>
+    <workbookView xWindow="5565" yWindow="1095" windowWidth="21600" windowHeight="11385" xr2:uid="{6CFF20DE-F54B-4CA7-9EA6-B3F70A24F71B}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Dato</t>
   </si>
@@ -69,15 +69,25 @@
   </si>
   <si>
     <t>DEADLINE FOR ITERATION 1!</t>
+  </si>
+  <si>
+    <t>Karakterer:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="48"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -128,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -144,6 +154,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,19 +470,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89B9FC7-9091-471F-B5D0-05011EE7CF83}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="6" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,8 +502,11 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A2" s="4">
         <v>43887</v>
       </c>
@@ -501,8 +517,11 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43888</v>
       </c>
@@ -520,7 +539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43889</v>
       </c>
@@ -530,7 +549,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>43890</v>
       </c>
@@ -540,7 +559,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>43891</v>
       </c>
@@ -550,7 +569,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43892</v>
       </c>
@@ -560,7 +579,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43893</v>
       </c>
@@ -570,7 +589,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>43894</v>
       </c>
@@ -580,7 +599,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>43895</v>
       </c>
@@ -590,7 +609,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43896</v>
       </c>
@@ -600,7 +619,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>43897</v>
       </c>
@@ -610,7 +629,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>43898</v>
       </c>
@@ -620,7 +639,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43899</v>
       </c>
@@ -630,43 +649,47 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43900</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>43901</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>43902</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43903</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>43904</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>43905</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>43906</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tidsplan.xlsx
+++ b/Tidsplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Life-Of-Mark---After-Iteration-0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761B6DA3-A0E9-4942-BA12-1BCBD95CE845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F96C003-2616-435D-9F3B-FAAC3AB8FF42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5565" yWindow="1095" windowWidth="21600" windowHeight="11385" xr2:uid="{6CFF20DE-F54B-4CA7-9EA6-B3F70A24F71B}"/>
+    <workbookView xWindow="8355" yWindow="1650" windowWidth="13635" windowHeight="9105" xr2:uid="{6CFF20DE-F54B-4CA7-9EA6-B3F70A24F71B}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Dato</t>
   </si>
@@ -72,6 +72,18 @@
   </si>
   <si>
     <t>Karakterer:</t>
+  </si>
+  <si>
+    <t>Lav hovedmenu om</t>
+  </si>
+  <si>
+    <t>Ryddet op i script (classes)</t>
+  </si>
+  <si>
+    <t>Animationer (krig med macbook)</t>
+  </si>
+  <si>
+    <t>Lyd (Slåskamp og musik) (Walk)</t>
   </si>
 </sst>
 </file>
@@ -94,7 +106,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +137,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -138,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -156,6 +180,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89B9FC7-9091-471F-B5D0-05011EE7CF83}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,16 +556,16 @@
         <v>43888</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -544,8 +574,12 @@
         <v>43889</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
@@ -564,7 +598,9 @@
         <v>43891</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -594,10 +630,16 @@
         <v>43894</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">

--- a/Tidsplan.xlsx
+++ b/Tidsplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Life-Of-Mark---After-Iteration-0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F96C003-2616-435D-9F3B-FAAC3AB8FF42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87480CCB-3A73-4116-9E84-320FF4436184}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8355" yWindow="1650" windowWidth="13635" windowHeight="9105" xr2:uid="{6CFF20DE-F54B-4CA7-9EA6-B3F70A24F71B}"/>
   </bookViews>
@@ -502,7 +502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89B9FC7-9091-471F-B5D0-05011EE7CF83}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/Tidsplan.xlsx
+++ b/Tidsplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Life-Of-Mark---After-Iteration-0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87480CCB-3A73-4116-9E84-320FF4436184}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442F94DF-82F8-4905-A93B-81DC85C72440}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8355" yWindow="1650" windowWidth="13635" windowHeight="9105" xr2:uid="{6CFF20DE-F54B-4CA7-9EA6-B3F70A24F71B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CFF20DE-F54B-4CA7-9EA6-B3F70A24F71B}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Dato</t>
   </si>
@@ -84,13 +84,37 @@
   </si>
   <si>
     <t>Lyd (Slåskamp og musik) (Walk)</t>
+  </si>
+  <si>
+    <t>Hallway 2</t>
+  </si>
+  <si>
+    <t>Arbejd på aflevering af iteration 0 (Evt ekstra musik)</t>
+  </si>
+  <si>
+    <t>Skab overblik</t>
+  </si>
+  <si>
+    <t>Systemer til afspilning af lyd</t>
+  </si>
+  <si>
+    <t>DEADLINE FOR ITERATION 2!</t>
+  </si>
+  <si>
+    <t>DEADLINE FOR ITERATION 3! Færdig spil skal afleveres</t>
+  </si>
+  <si>
+    <t>Forbered og fuldfør iteration 1 aflevering</t>
+  </si>
+  <si>
+    <t>Lav skift til første scene</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,8 +129,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +186,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0066FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -162,12 +205,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -186,12 +226,35 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0066FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -500,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89B9FC7-9091-471F-B5D0-05011EE7CF83}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:X98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,35 +600,35 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>43887</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="H2" s="10">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="H2" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>43888</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -573,123 +636,123 @@
       <c r="A4" s="1">
         <v>43889</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>43890</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>43891</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43892</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43893</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>43894</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>43895</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43896</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>43897</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>43898</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43899</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -697,42 +760,460 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>43901</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="B16" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>43902</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43903</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+    <row r="19" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>43904</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+    <row r="20" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>43905</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>43906</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-    </row>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43915</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43916</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>43918</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="13">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="13">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="13">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13">
+        <v>43930</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="13">
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="18">
+        <v>43933</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="13">
+        <v>43934</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="13">
+        <v>43935</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="13">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="13">
+        <v>43937</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="13">
+        <v>43938</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>43939</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>43940</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>43941</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="13">
+        <v>43942</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="13">
+        <v>43943</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="13">
+        <v>43944</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="13">
+        <v>43945</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>43946</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="13">
+        <v>43948</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="13">
+        <v>43949</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="13">
+        <v>43950</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="13">
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="13">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="13">
+        <v>43955</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="13">
+        <v>43956</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="13">
+        <v>43957</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="13">
+        <v>43958</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="13">
+        <v>43959</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
+        <v>43961</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="13">
+        <v>43962</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="13">
+        <v>43963</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="13">
+        <v>43964</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="13">
+        <v>43965</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="13">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>43967</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="5">
+        <v>43968</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="13">
+        <v>43969</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="13">
+        <v>43970</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="13">
+        <v>43971</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="13">
+        <v>43972</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="13">
+        <v>43973</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>43974</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="5">
+        <v>43975</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="15">
+        <v>43976</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="14"/>
+      <c r="K91" s="14"/>
+      <c r="L91" s="14"/>
+      <c r="M91" s="14"/>
+      <c r="N91" s="14"/>
+      <c r="O91" s="14"/>
+      <c r="P91" s="14"/>
+      <c r="Q91" s="14"/>
+      <c r="R91" s="14"/>
+      <c r="S91" s="14"/>
+      <c r="T91" s="14"/>
+      <c r="U91" s="14"/>
+      <c r="V91" s="14"/>
+      <c r="W91" s="14"/>
+      <c r="X91" s="14"/>
+    </row>
+    <row r="92" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tidsplan.xlsx
+++ b/Tidsplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Life-Of-Mark---After-Iteration-0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442F94DF-82F8-4905-A93B-81DC85C72440}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6104AAB3-E1DB-4C7C-8380-5468B4489A62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CFF20DE-F54B-4CA7-9EA6-B3F70A24F71B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Dato</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Hallway 2</t>
   </si>
   <si>
-    <t>Arbejd på aflevering af iteration 0 (Evt ekstra musik)</t>
-  </si>
-  <si>
     <t>Skab overblik</t>
   </si>
   <si>
@@ -108,6 +105,15 @@
   </si>
   <si>
     <t>Lav skift til første scene</t>
+  </si>
+  <si>
+    <t>Arbejd på aflevering af iteration 1 (Evt ekstra musik)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collision + hitbox </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sceneskift, Kampanimationer (evt helt kampsystem), Ryddet op i classes,            Hitboxes og collision, </t>
   </si>
 </sst>
 </file>
@@ -565,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89B9FC7-9091-471F-B5D0-05011EE7CF83}">
   <dimension ref="A1:X98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="109" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,6 +580,7 @@
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="6" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -764,19 +771,17 @@
         <v>43901</v>
       </c>
       <c r="B16" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43902</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>14</v>
-      </c>
+      <c r="C17" s="12"/>
       <c r="D17" s="2" t="s">
         <v>17</v>
       </c>
@@ -784,34 +789,40 @@
         <v>15</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43903</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>43904</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>43905</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>43906</v>
       </c>
@@ -823,58 +834,61 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43907</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43908</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43909</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43910</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>43911</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>43912</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43913</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43914</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43915</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43916</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43917</v>
       </c>
@@ -999,7 +1013,7 @@
         <v>43941</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -1182,7 +1196,7 @@
         <v>43976</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C91" s="17"/>
       <c r="D91" s="17"/>

--- a/Tidsplan.xlsx
+++ b/Tidsplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Life-Of-Mark---After-Iteration-0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6104AAB3-E1DB-4C7C-8380-5468B4489A62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC3E2BE-7546-4673-93A7-EB762ED12E1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CFF20DE-F54B-4CA7-9EA6-B3F70A24F71B}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>Tidsplan, Borde i klasseværelse, (Storyboard)</t>
   </si>
   <si>
-    <t>DEADLINE FOR ITERATION 1!</t>
-  </si>
-  <si>
     <t>Karakterer:</t>
   </si>
   <si>
@@ -114,6 +111,9 @@
   </si>
   <si>
     <t xml:space="preserve">Sceneskift, Kampanimationer (evt helt kampsystem), Ryddet op i classes,            Hitboxes og collision, </t>
+  </si>
+  <si>
+    <t>DEADLINE FOR ITERATION 1!!!</t>
   </si>
 </sst>
 </file>
@@ -149,7 +149,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,6 +198,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -211,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -249,6 +255,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,7 +581,7 @@
   <dimension ref="A1:X98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="109" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,7 +612,7 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.9">
@@ -669,7 +678,7 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -701,14 +710,14 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -771,10 +780,10 @@
         <v>43901</v>
       </c>
       <c r="B16" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="20" t="s">
         <v>18</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -783,13 +792,13 @@
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -797,7 +806,7 @@
         <v>43903</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -805,7 +814,7 @@
         <v>43904</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -813,13 +822,13 @@
         <v>43905</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -827,15 +836,15 @@
         <v>43906</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="J21" s="2" t="s">
-        <v>26</v>
+      <c r="J21" s="22" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1013,7 +1022,7 @@
         <v>43941</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -1196,7 +1205,7 @@
         <v>43976</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C91" s="17"/>
       <c r="D91" s="17"/>
